--- a/Programming/Super dream problems solved.xlsx
+++ b/Programming/Super dream problems solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/befb8918e6a2be85/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8B568F-0DF3-46FE-8A29-3306F8C0698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9D8B568F-0DF3-46FE-8A29-3306F8C0698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E92337-3AFF-4F50-97DB-B319A5307D3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8ADB3527-DA38-4CFA-BF8B-C9E96EF3A6B4}"/>
   </bookViews>
@@ -230,10 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,25 +551,27 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E1" sqref="E1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="79.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
